--- a/Predict.xlsx
+++ b/Predict.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1650,6 +1650,182 @@
         </is>
       </c>
     </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.5022331476211548</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>ATT3295_42311DF4-A9FC-48E0-80A0-44FB7F9D1BD0.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.8081678152084351</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>ATT3296_Screenshot_20201023-035213_Blink.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.8024970293045044</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>ATT3297_Screenshot_20201023-035325_Blink.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.8111998438835144</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>ATT3298_Screenshot_20201023-035341_Blink.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.8094729781150818</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>ATT3299_Screenshot_20201023-035247_Blink.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.8139111399650574</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>ATT3300_Screenshot_20201023-035401_Blink.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.8382505178451538</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>ATT3301_42D408C0-95F0-4121-B0CF-D3AF977F25B0.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.5518031716346741</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>ATT3302_tmp-cam-4811883243317525499.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.7958860993385315</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>ATT3303_5F5E645F-0249-4CF9-84E2-9E7BCD1CE348.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.9209294319152832</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>ATT3304_3F3414C0-1943-4ABC-BA74-241D6C0EAA35.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.6603425741195679</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>ATT3305_AE3995C6-528B-4F16-BDF3-A6F5DBFFA534.jpg</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
